--- a/Coal.xlsx
+++ b/Coal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Live Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4381176D-BD4F-40CE-BE39-A2D67E994A54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{731C90B4-2CE8-4CB4-AE30-3551819AC7C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{634556B4-C92E-41D8-AD76-B260FEEE44D3}"/>
   </bookViews>
@@ -40,29 +40,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="33">
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF0A0A0A"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">Day Wise
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF0A0A0A"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>Total</t>
-    </r>
-  </si>
   <si>
     <r>
       <rPr>
@@ -409,6 +386,9 @@
   </si>
   <si>
     <t>Plant 3</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -1049,9 +1029,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1075,6 +1052,9 @@
     </xf>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1413,8 +1393,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:F367"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="C83" sqref="C83"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1428,36 +1408,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="35" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="37" t="s">
+      <c r="A1" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="D1" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="E1" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="40" t="s">
+      <c r="F1" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="33" t="s">
-        <v>0</v>
-      </c>
     </row>
     <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="34"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="33"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="2">
         <v>45383</v>
@@ -1477,7 +1457,7 @@
     </row>
     <row r="4" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" s="2">
         <v>45384</v>
@@ -1497,7 +1477,7 @@
     </row>
     <row r="5" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" s="2">
         <v>45385</v>
@@ -1517,7 +1497,7 @@
     </row>
     <row r="6" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" s="2">
         <v>45386</v>
@@ -1537,7 +1517,7 @@
     </row>
     <row r="7" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B7" s="2">
         <v>45387</v>
@@ -1557,7 +1537,7 @@
     </row>
     <row r="8" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B8" s="2">
         <v>45388</v>
@@ -1577,7 +1557,7 @@
     </row>
     <row r="9" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B9" s="2">
         <v>45389</v>
@@ -1597,7 +1577,7 @@
     </row>
     <row r="10" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B10" s="2">
         <v>45390</v>
@@ -1617,7 +1597,7 @@
     </row>
     <row r="11" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B11" s="2">
         <v>45391</v>
@@ -1637,7 +1617,7 @@
     </row>
     <row r="12" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B12" s="2">
         <v>45392</v>
@@ -1646,7 +1626,7 @@
         <v>7023</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E12" s="10">
         <v>10159</v>
@@ -1657,7 +1637,7 @@
     </row>
     <row r="13" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B13" s="2">
         <v>45393</v>
@@ -1677,7 +1657,7 @@
     </row>
     <row r="14" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B14" s="2">
         <v>45394</v>
@@ -1697,7 +1677,7 @@
     </row>
     <row r="15" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B15" s="2">
         <v>45395</v>
@@ -1717,7 +1697,7 @@
     </row>
     <row r="16" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B16" s="2">
         <v>45396</v>
@@ -1737,7 +1717,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B17" s="2">
         <v>45397</v>
@@ -1757,7 +1737,7 @@
     </row>
     <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B18" s="2">
         <v>45398</v>
@@ -1775,7 +1755,7 @@
     </row>
     <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B19" s="2">
         <v>45399</v>
@@ -1793,7 +1773,7 @@
     </row>
     <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B20" s="2">
         <v>45400</v>
@@ -1811,7 +1791,7 @@
     </row>
     <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B21" s="2">
         <v>45401</v>
@@ -1829,7 +1809,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B22" s="2">
         <v>45402</v>
@@ -1849,7 +1829,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B23" s="2">
         <v>45403</v>
@@ -1869,7 +1849,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B24" s="2">
         <v>45404</v>
@@ -1889,7 +1869,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B25" s="2">
         <v>45405</v>
@@ -1909,7 +1889,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B26" s="2">
         <v>45406</v>
@@ -1929,7 +1909,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B27" s="2">
         <v>45407</v>
@@ -1949,7 +1929,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B28" s="2">
         <v>45408</v>
@@ -1969,7 +1949,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B29" s="2">
         <v>45409</v>
@@ -1989,7 +1969,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B30" s="2">
         <v>45410</v>
@@ -2009,7 +1989,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B31" s="2">
         <v>45411</v>
@@ -2029,7 +2009,7 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B32" s="2">
         <v>45412</v>
@@ -2049,7 +2029,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B33" s="2">
         <v>45413</v>
@@ -2069,7 +2049,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B34" s="2">
         <v>45414</v>
@@ -2089,7 +2069,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B35" s="2">
         <v>45415</v>
@@ -2109,7 +2089,7 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B36" s="2">
         <v>45416</v>
@@ -2129,7 +2109,7 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B37" s="2">
         <v>45417</v>
@@ -2149,7 +2129,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B38" s="2">
         <v>45418</v>
@@ -2169,7 +2149,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B39" s="2">
         <v>45419</v>
@@ -2189,7 +2169,7 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B40" s="2">
         <v>45420</v>
@@ -2209,7 +2189,7 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B41" s="2">
         <v>45421</v>
@@ -2229,7 +2209,7 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B42" s="2">
         <v>45422</v>
@@ -2249,7 +2229,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B43" s="2">
         <v>45423</v>
@@ -2269,7 +2249,7 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B44" s="2">
         <v>45424</v>
@@ -2289,7 +2269,7 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B45" s="2">
         <v>45425</v>
@@ -2309,7 +2289,7 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B46" s="2">
         <v>45426</v>
@@ -2329,7 +2309,7 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B47" s="2">
         <v>45427</v>
@@ -2347,7 +2327,7 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B48" s="2">
         <v>45428</v>
@@ -2365,7 +2345,7 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B49" s="2">
         <v>45429</v>
@@ -2383,7 +2363,7 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B50" s="2">
         <v>45430</v>
@@ -2403,7 +2383,7 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B51" s="2">
         <v>45431</v>
@@ -2423,7 +2403,7 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B52" s="2">
         <v>45432</v>
@@ -2441,7 +2421,7 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B53" s="2">
         <v>45433</v>
@@ -2459,7 +2439,7 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B54" s="2">
         <v>45434</v>
@@ -2477,7 +2457,7 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B55" s="2">
         <v>45435</v>
@@ -2495,7 +2475,7 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B56" s="2">
         <v>45436</v>
@@ -2513,7 +2493,7 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B57" s="2">
         <v>45437</v>
@@ -2531,7 +2511,7 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B58" s="2">
         <v>45438</v>
@@ -2549,7 +2529,7 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B59" s="2">
         <v>45439</v>
@@ -2567,7 +2547,7 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B60" s="2">
         <v>45440</v>
@@ -2579,7 +2559,7 @@
         <v>5948</v>
       </c>
       <c r="E60" s="19" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F60" s="6">
         <v>13356</v>
@@ -2587,7 +2567,7 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B61" s="2">
         <v>45441</v>
@@ -2605,7 +2585,7 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B62" s="2">
         <v>45442</v>
@@ -2623,7 +2603,7 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B63" s="2">
         <v>45443</v>
@@ -2641,7 +2621,7 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B64" s="2">
         <v>45444</v>
@@ -2659,7 +2639,7 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B65" s="2">
         <v>45445</v>
@@ -2677,7 +2657,7 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B66" s="2">
         <v>45446</v>
@@ -2686,7 +2666,7 @@
         <v>5415</v>
       </c>
       <c r="D66" s="11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E66" s="16"/>
       <c r="F66" s="6">
@@ -2695,7 +2675,7 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B67" s="2">
         <v>45447</v>
@@ -2713,7 +2693,7 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B68" s="2">
         <v>45448</v>
@@ -2733,7 +2713,7 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B69" s="2">
         <v>45449</v>
@@ -2745,7 +2725,7 @@
         <v>6872</v>
       </c>
       <c r="E69" s="19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F69" s="6">
         <v>21667</v>
@@ -2753,7 +2733,7 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B70" s="2">
         <v>45450</v>
@@ -2773,7 +2753,7 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B71" s="2">
         <v>45451</v>
@@ -2793,7 +2773,7 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B72" s="2">
         <v>45452</v>
@@ -2813,7 +2793,7 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B73" s="2">
         <v>45453</v>
@@ -2833,7 +2813,7 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B74" s="2">
         <v>45454</v>
@@ -2853,7 +2833,7 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B75" s="2">
         <v>45455</v>
@@ -2873,7 +2853,7 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B76" s="2">
         <v>45456</v>
@@ -2893,7 +2873,7 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B77" s="2">
         <v>45457</v>
@@ -2913,7 +2893,7 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B78" s="2">
         <v>45458</v>
@@ -2933,7 +2913,7 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B79" s="2">
         <v>45459</v>
@@ -2953,7 +2933,7 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B80" s="2">
         <v>45460</v>
@@ -2973,7 +2953,7 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B81" s="2">
         <v>45461</v>
@@ -2993,7 +2973,7 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B82" s="2">
         <v>45462</v>
@@ -3013,7 +2993,7 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B83" s="2">
         <v>45463</v>
@@ -3033,7 +3013,7 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B84" s="2">
         <v>45464</v>
@@ -3053,7 +3033,7 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B85" s="2">
         <v>45465</v>
@@ -3065,7 +3045,7 @@
         <v>6835</v>
       </c>
       <c r="E85" s="19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F85" s="6">
         <v>23696</v>
@@ -3073,7 +3053,7 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B86" s="2">
         <v>45466</v>
@@ -3093,7 +3073,7 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B87" s="2">
         <v>45467</v>
@@ -3113,7 +3093,7 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B88" s="2">
         <v>45468</v>
@@ -3133,7 +3113,7 @@
     </row>
     <row r="89" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B89" s="2">
         <v>45469</v>
@@ -3153,7 +3133,7 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B90" s="2">
         <v>45470</v>
@@ -3173,7 +3153,7 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B91" s="2">
         <v>45471</v>
@@ -3182,10 +3162,10 @@
         <v>6788</v>
       </c>
       <c r="D91" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E91" s="19" t="s">
         <v>8</v>
-      </c>
-      <c r="E91" s="19" t="s">
-        <v>9</v>
       </c>
       <c r="F91" s="6">
         <v>19311</v>
@@ -3193,7 +3173,7 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B92" s="2">
         <v>45472</v>
@@ -3211,7 +3191,7 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B93" s="2">
         <v>45473</v>
@@ -3223,7 +3203,7 @@
         <v>6618</v>
       </c>
       <c r="E93" s="19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F93" s="6">
         <v>15903</v>
@@ -3231,7 +3211,7 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B94" s="2">
         <v>45474</v>
@@ -3251,7 +3231,7 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B95" s="2">
         <v>45475</v>
@@ -3271,7 +3251,7 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B96" s="2">
         <v>45476</v>
@@ -3291,7 +3271,7 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B97" s="2">
         <v>45477</v>
@@ -3311,7 +3291,7 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B98" s="2">
         <v>45478</v>
@@ -3320,7 +3300,7 @@
         <v>6948</v>
       </c>
       <c r="D98" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E98" s="10">
         <v>8000</v>
@@ -3331,7 +3311,7 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B99" s="2">
         <v>45479</v>
@@ -3351,7 +3331,7 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B100" s="2">
         <v>45480</v>
@@ -3363,7 +3343,7 @@
         <v>6323</v>
       </c>
       <c r="E100" s="19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F100" s="6">
         <v>21630</v>
@@ -3371,7 +3351,7 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B101" s="2">
         <v>45481</v>
@@ -3380,7 +3360,7 @@
         <v>7023</v>
       </c>
       <c r="D101" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E101" s="10">
         <v>10112</v>
@@ -3391,7 +3371,7 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B102" s="2">
         <v>45482</v>
@@ -3411,7 +3391,7 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B103" s="2">
         <v>45483</v>
@@ -3431,7 +3411,7 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B104" s="2">
         <v>45484</v>
@@ -3451,7 +3431,7 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B105" s="2">
         <v>45485</v>
@@ -3471,7 +3451,7 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B106" s="2">
         <v>45486</v>
@@ -3491,7 +3471,7 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B107" s="2">
         <v>45487</v>
@@ -3511,7 +3491,7 @@
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B108" s="2">
         <v>45488</v>
@@ -3531,7 +3511,7 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B109" s="2">
         <v>45489</v>
@@ -3551,7 +3531,7 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B110" s="2">
         <v>45490</v>
@@ -3571,7 +3551,7 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B111" s="2">
         <v>45491</v>
@@ -3591,7 +3571,7 @@
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B112" s="2">
         <v>45492</v>
@@ -3611,7 +3591,7 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B113" s="2">
         <v>45493</v>
@@ -3631,7 +3611,7 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B114" s="2">
         <v>45494</v>
@@ -3651,7 +3631,7 @@
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B115" s="2">
         <v>45495</v>
@@ -3671,7 +3651,7 @@
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B116" s="2">
         <v>45496</v>
@@ -3691,7 +3671,7 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B117" s="2">
         <v>45497</v>
@@ -3711,7 +3691,7 @@
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B118" s="2">
         <v>45498</v>
@@ -3731,7 +3711,7 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B119" s="2">
         <v>45499</v>
@@ -3751,7 +3731,7 @@
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B120" s="2">
         <v>45500</v>
@@ -3771,7 +3751,7 @@
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B121" s="2">
         <v>45501</v>
@@ -3791,7 +3771,7 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B122" s="2">
         <v>45502</v>
@@ -3811,7 +3791,7 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B123" s="2">
         <v>45503</v>
@@ -3831,7 +3811,7 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B124" s="2">
         <v>45504</v>
@@ -3851,7 +3831,7 @@
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B125" s="2">
         <v>45505</v>
@@ -3871,7 +3851,7 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B126" s="2">
         <v>45506</v>
@@ -3891,7 +3871,7 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B127" s="2">
         <v>45507</v>
@@ -3911,7 +3891,7 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B128" s="2">
         <v>45508</v>
@@ -3931,7 +3911,7 @@
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B129" s="2">
         <v>45509</v>
@@ -3951,7 +3931,7 @@
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B130" s="2">
         <v>45510</v>
@@ -3971,7 +3951,7 @@
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B131" s="2">
         <v>45511</v>
@@ -3991,7 +3971,7 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B132" s="2">
         <v>45512</v>
@@ -4011,7 +3991,7 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B133" s="2">
         <v>45513</v>
@@ -4031,7 +4011,7 @@
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B134" s="2">
         <v>45514</v>
@@ -4049,7 +4029,7 @@
     </row>
     <row r="135" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B135" s="2">
         <v>45515</v>
@@ -4065,7 +4045,7 @@
     </row>
     <row r="136" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B136" s="2">
         <v>45516</v>
@@ -4083,7 +4063,7 @@
     </row>
     <row r="137" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B137" s="2">
         <v>45517</v>
@@ -4101,7 +4081,7 @@
     </row>
     <row r="138" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B138" s="2">
         <v>45518</v>
@@ -4119,7 +4099,7 @@
     </row>
     <row r="139" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B139" s="2">
         <v>45519</v>
@@ -4137,7 +4117,7 @@
     </row>
     <row r="140" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B140" s="2">
         <v>45520</v>
@@ -4155,7 +4135,7 @@
     </row>
     <row r="141" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B141" s="2">
         <v>45521</v>
@@ -4173,7 +4153,7 @@
     </row>
     <row r="142" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B142" s="2">
         <v>45522</v>
@@ -4191,7 +4171,7 @@
     </row>
     <row r="143" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B143" s="2">
         <v>45523</v>
@@ -4209,7 +4189,7 @@
     </row>
     <row r="144" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B144" s="2">
         <v>45524</v>
@@ -4229,7 +4209,7 @@
     </row>
     <row r="145" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B145" s="2">
         <v>45525</v>
@@ -4247,7 +4227,7 @@
     </row>
     <row r="146" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B146" s="2">
         <v>45526</v>
@@ -4265,7 +4245,7 @@
     </row>
     <row r="147" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B147" s="2">
         <v>45527</v>
@@ -4283,7 +4263,7 @@
     </row>
     <row r="148" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B148" s="2">
         <v>45528</v>
@@ -4301,7 +4281,7 @@
     </row>
     <row r="149" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B149" s="2">
         <v>45529</v>
@@ -4319,7 +4299,7 @@
     </row>
     <row r="150" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B150" s="2">
         <v>45530</v>
@@ -4337,7 +4317,7 @@
     </row>
     <row r="151" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B151" s="2">
         <v>45531</v>
@@ -4355,7 +4335,7 @@
     </row>
     <row r="152" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A152" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B152" s="2">
         <v>45532</v>
@@ -4373,7 +4353,7 @@
     </row>
     <row r="153" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B153" s="2">
         <v>45533</v>
@@ -4391,7 +4371,7 @@
     </row>
     <row r="154" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A154" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B154" s="2">
         <v>45534</v>
@@ -4409,7 +4389,7 @@
     </row>
     <row r="155" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A155" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B155" s="2">
         <v>45535</v>
@@ -4427,7 +4407,7 @@
     </row>
     <row r="156" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A156" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B156" s="2">
         <v>45536</v>
@@ -4445,7 +4425,7 @@
     </row>
     <row r="157" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A157" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B157" s="2">
         <v>45537</v>
@@ -4455,7 +4435,7 @@
         <v>6254</v>
       </c>
       <c r="E157" s="19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F157" s="6">
         <v>14651</v>
@@ -4463,7 +4443,7 @@
     </row>
     <row r="158" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A158" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B158" s="2">
         <v>45538</v>
@@ -4481,7 +4461,7 @@
     </row>
     <row r="159" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A159" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B159" s="2">
         <v>45539</v>
@@ -4499,7 +4479,7 @@
     </row>
     <row r="160" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A160" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B160" s="2">
         <v>45540</v>
@@ -4517,7 +4497,7 @@
     </row>
     <row r="161" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A161" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B161" s="2">
         <v>45541</v>
@@ -4535,7 +4515,7 @@
     </row>
     <row r="162" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B162" s="2">
         <v>45542</v>
@@ -4551,7 +4531,7 @@
     </row>
     <row r="163" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B163" s="2">
         <v>45543</v>
@@ -4567,7 +4547,7 @@
     </row>
     <row r="164" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A164" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B164" s="2">
         <v>45544</v>
@@ -4583,7 +4563,7 @@
     </row>
     <row r="165" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A165" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B165" s="2">
         <v>45545</v>
@@ -4599,7 +4579,7 @@
     </row>
     <row r="166" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A166" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B166" s="2">
         <v>45546</v>
@@ -4615,7 +4595,7 @@
     </row>
     <row r="167" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A167" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B167" s="2">
         <v>45547</v>
@@ -4633,7 +4613,7 @@
     </row>
     <row r="168" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A168" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B168" s="2">
         <v>45548</v>
@@ -4651,7 +4631,7 @@
     </row>
     <row r="169" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A169" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B169" s="2">
         <v>45549</v>
@@ -4669,7 +4649,7 @@
     </row>
     <row r="170" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A170" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B170" s="2">
         <v>45550</v>
@@ -4685,7 +4665,7 @@
     </row>
     <row r="171" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A171" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B171" s="2">
         <v>45551</v>
@@ -4701,7 +4681,7 @@
     </row>
     <row r="172" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A172" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B172" s="2">
         <v>45552</v>
@@ -4717,7 +4697,7 @@
     </row>
     <row r="173" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A173" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B173" s="2">
         <v>45553</v>
@@ -4733,7 +4713,7 @@
     </row>
     <row r="174" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A174" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B174" s="2">
         <v>45554</v>
@@ -4749,7 +4729,7 @@
     </row>
     <row r="175" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A175" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B175" s="2">
         <v>45555</v>
@@ -4767,7 +4747,7 @@
     </row>
     <row r="176" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A176" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B176" s="2">
         <v>45556</v>
@@ -4785,7 +4765,7 @@
     </row>
     <row r="177" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A177" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B177" s="2">
         <v>45557</v>
@@ -4803,7 +4783,7 @@
     </row>
     <row r="178" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A178" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B178" s="2">
         <v>45558</v>
@@ -4821,7 +4801,7 @@
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B179" s="2">
         <v>45559</v>
@@ -4841,7 +4821,7 @@
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B180" s="2">
         <v>45560</v>
@@ -4853,7 +4833,7 @@
         <v>6569</v>
       </c>
       <c r="E180" s="19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F180" s="6">
         <v>22905</v>
@@ -4861,7 +4841,7 @@
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B181" s="2">
         <v>45561</v>
@@ -4881,7 +4861,7 @@
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B182" s="2">
         <v>45562</v>
@@ -4901,7 +4881,7 @@
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B183" s="2">
         <v>45563</v>
@@ -4921,7 +4901,7 @@
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B184" s="2">
         <v>45564</v>
@@ -4941,7 +4921,7 @@
     </row>
     <row r="185" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A185" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B185" s="2">
         <v>45565</v>
@@ -4959,7 +4939,7 @@
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B186" s="2">
         <v>45566</v>
@@ -4979,7 +4959,7 @@
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B187" s="2">
         <v>45567</v>
@@ -4997,7 +4977,7 @@
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B188" s="2">
         <v>45568</v>
@@ -5017,7 +4997,7 @@
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B189" s="2">
         <v>45569</v>
@@ -5037,7 +5017,7 @@
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B190" s="2">
         <v>45570</v>
@@ -5057,7 +5037,7 @@
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B191" s="2">
         <v>45571</v>
@@ -5077,7 +5057,7 @@
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B192" s="2">
         <v>45572</v>
@@ -5097,7 +5077,7 @@
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B193" s="2">
         <v>45573</v>
@@ -5117,7 +5097,7 @@
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B194" s="2">
         <v>45574</v>
@@ -5137,7 +5117,7 @@
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B195" s="2">
         <v>45575</v>
@@ -5157,7 +5137,7 @@
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B196" s="2">
         <v>45576</v>
@@ -5177,7 +5157,7 @@
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B197" s="2">
         <v>45577</v>
@@ -5189,7 +5169,7 @@
         <v>6500</v>
       </c>
       <c r="E197" s="19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F197" s="6">
         <v>21651</v>
@@ -5197,7 +5177,7 @@
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B198" s="2">
         <v>45578</v>
@@ -5217,7 +5197,7 @@
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B199" s="2">
         <v>45579</v>
@@ -5237,7 +5217,7 @@
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B200" s="2">
         <v>45580</v>
@@ -5257,7 +5237,7 @@
     </row>
     <row r="201" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A201" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B201" s="2">
         <v>45581</v>
@@ -5275,7 +5255,7 @@
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A202" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B202" s="2">
         <v>45582</v>
@@ -5295,7 +5275,7 @@
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A203" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B203" s="2">
         <v>45583</v>
@@ -5315,7 +5295,7 @@
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A204" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B204" s="2">
         <v>45584</v>
@@ -5327,7 +5307,7 @@
         <v>6778</v>
       </c>
       <c r="E204" s="19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F204" s="6">
         <v>22701</v>
@@ -5335,7 +5315,7 @@
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A205" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B205" s="2">
         <v>45585</v>
@@ -5355,7 +5335,7 @@
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A206" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B206" s="2">
         <v>45586</v>
@@ -5375,7 +5355,7 @@
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A207" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B207" s="2">
         <v>45587</v>
@@ -5395,7 +5375,7 @@
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A208" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B208" s="2">
         <v>45588</v>
@@ -5415,7 +5395,7 @@
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A209" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B209" s="2">
         <v>45589</v>
@@ -5435,7 +5415,7 @@
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A210" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B210" s="2">
         <v>45590</v>
@@ -5455,7 +5435,7 @@
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A211" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B211" s="2">
         <v>45591</v>
@@ -5475,7 +5455,7 @@
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A212" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B212" s="2">
         <v>45592</v>
@@ -5495,7 +5475,7 @@
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A213" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B213" s="2">
         <v>45593</v>
@@ -5507,7 +5487,7 @@
         <v>7041</v>
       </c>
       <c r="E213" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F213" s="6">
         <v>23407</v>
@@ -5515,7 +5495,7 @@
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A214" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B214" s="2">
         <v>45594</v>
@@ -5535,7 +5515,7 @@
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A215" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B215" s="2">
         <v>45595</v>
@@ -5555,7 +5535,7 @@
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A216" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B216" s="2">
         <v>45596</v>
@@ -5575,7 +5555,7 @@
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A217" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B217" s="2">
         <v>45597</v>
@@ -5595,7 +5575,7 @@
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A218" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B218" s="2">
         <v>45598</v>
@@ -5615,7 +5595,7 @@
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A219" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B219" s="2">
         <v>45599</v>
@@ -5635,7 +5615,7 @@
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A220" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B220" s="2">
         <v>45600</v>
@@ -5655,7 +5635,7 @@
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A221" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B221" s="2">
         <v>45601</v>
@@ -5675,7 +5655,7 @@
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A222" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B222" s="2">
         <v>45602</v>
@@ -5684,7 +5664,7 @@
         <v>7369</v>
       </c>
       <c r="D222" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E222" s="10">
         <v>8961</v>
@@ -5695,7 +5675,7 @@
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A223" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B223" s="2">
         <v>45603</v>
@@ -5715,7 +5695,7 @@
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A224" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B224" s="2">
         <v>45604</v>
@@ -5735,7 +5715,7 @@
     </row>
     <row r="225" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A225" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B225" s="2">
         <v>45605</v>
@@ -5755,7 +5735,7 @@
     </row>
     <row r="226" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A226" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B226" s="2">
         <v>45606</v>
@@ -5773,7 +5753,7 @@
     </row>
     <row r="227" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A227" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B227" s="2">
         <v>45607</v>
@@ -5791,7 +5771,7 @@
     </row>
     <row r="228" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A228" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B228" s="2">
         <v>45608</v>
@@ -5809,7 +5789,7 @@
     </row>
     <row r="229" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A229" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B229" s="2">
         <v>45609</v>
@@ -5827,7 +5807,7 @@
     </row>
     <row r="230" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A230" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B230" s="2">
         <v>45610</v>
@@ -5845,7 +5825,7 @@
     </row>
     <row r="231" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A231" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B231" s="2">
         <v>45611</v>
@@ -5863,7 +5843,7 @@
     </row>
     <row r="232" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A232" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B232" s="2">
         <v>45612</v>
@@ -5881,7 +5861,7 @@
     </row>
     <row r="233" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A233" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B233" s="2">
         <v>45613</v>
@@ -5899,7 +5879,7 @@
     </row>
     <row r="234" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A234" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B234" s="2">
         <v>45614</v>
@@ -5917,7 +5897,7 @@
     </row>
     <row r="235" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A235" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B235" s="2">
         <v>45615</v>
@@ -5935,7 +5915,7 @@
     </row>
     <row r="236" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A236" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B236" s="2">
         <v>45616</v>
@@ -5951,7 +5931,7 @@
     </row>
     <row r="237" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A237" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B237" s="2">
         <v>45617</v>
@@ -5969,7 +5949,7 @@
     </row>
     <row r="238" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A238" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B238" s="2">
         <v>45618</v>
@@ -5987,7 +5967,7 @@
     </row>
     <row r="239" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A239" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B239" s="2">
         <v>45619</v>
@@ -6005,7 +5985,7 @@
     </row>
     <row r="240" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A240" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B240" s="2">
         <v>45620</v>
@@ -6025,7 +6005,7 @@
     </row>
     <row r="241" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A241" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B241" s="2">
         <v>45621</v>
@@ -6045,7 +6025,7 @@
     </row>
     <row r="242" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A242" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B242" s="2">
         <v>45622</v>
@@ -6063,7 +6043,7 @@
     </row>
     <row r="243" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A243" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B243" s="2">
         <v>45623</v>
@@ -6081,7 +6061,7 @@
     </row>
     <row r="244" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A244" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B244" s="2">
         <v>45624</v>
@@ -6093,7 +6073,7 @@
         <v>6862</v>
       </c>
       <c r="E244" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F244" s="6">
         <v>15251</v>
@@ -6101,7 +6081,7 @@
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A245" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B245" s="2">
         <v>45625</v>
@@ -6121,7 +6101,7 @@
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A246" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B246" s="2">
         <v>45626</v>
@@ -6141,7 +6121,7 @@
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A247" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B247" s="2">
         <v>45627</v>
@@ -6161,7 +6141,7 @@
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A248" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B248" s="2">
         <v>45628</v>
@@ -6181,7 +6161,7 @@
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A249" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B249" s="2">
         <v>45629</v>
@@ -6201,7 +6181,7 @@
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A250" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B250" s="2">
         <v>45630</v>
@@ -6221,7 +6201,7 @@
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A251" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B251" s="2">
         <v>45631</v>
@@ -6241,7 +6221,7 @@
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A252" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B252" s="2">
         <v>45632</v>
@@ -6261,7 +6241,7 @@
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A253" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B253" s="2">
         <v>45633</v>
@@ -6273,7 +6253,7 @@
         <v>6584</v>
       </c>
       <c r="E253" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F253" s="6">
         <v>22334</v>
@@ -6281,7 +6261,7 @@
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A254" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B254" s="2">
         <v>45634</v>
@@ -6301,7 +6281,7 @@
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A255" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B255" s="2">
         <v>45635</v>
@@ -6321,7 +6301,7 @@
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A256" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B256" s="2">
         <v>45636</v>
@@ -6341,7 +6321,7 @@
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A257" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B257" s="2">
         <v>45637</v>
@@ -6361,7 +6341,7 @@
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A258" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B258" s="2">
         <v>45638</v>
@@ -6381,7 +6361,7 @@
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A259" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B259" s="2">
         <v>45639</v>
@@ -6401,7 +6381,7 @@
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A260" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B260" s="2">
         <v>45640</v>
@@ -6421,7 +6401,7 @@
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A261" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B261" s="2">
         <v>45641</v>
@@ -6433,7 +6413,7 @@
         <v>6560</v>
       </c>
       <c r="E261" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F261" s="6">
         <v>21037</v>
@@ -6441,7 +6421,7 @@
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A262" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B262" s="2">
         <v>45642</v>
@@ -6461,7 +6441,7 @@
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A263" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B263" s="2">
         <v>45643</v>
@@ -6481,7 +6461,7 @@
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A264" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B264" s="2">
         <v>45644</v>
@@ -6501,7 +6481,7 @@
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A265" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B265" s="2">
         <v>45645</v>
@@ -6521,7 +6501,7 @@
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A266" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B266" s="2">
         <v>45646</v>
@@ -6541,7 +6521,7 @@
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A267" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B267" s="2">
         <v>45647</v>
@@ -6561,7 +6541,7 @@
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A268" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B268" s="2">
         <v>45648</v>
@@ -6579,7 +6559,7 @@
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A269" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B269" s="2">
         <v>45649</v>
@@ -6597,7 +6577,7 @@
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A270" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B270" s="2">
         <v>45650</v>
@@ -6615,7 +6595,7 @@
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A271" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B271" s="2">
         <v>45651</v>
@@ -6633,7 +6613,7 @@
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A272" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B272" s="2">
         <v>45652</v>
@@ -6651,7 +6631,7 @@
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A273" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B273" s="2">
         <v>45653</v>
@@ -6669,7 +6649,7 @@
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A274" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B274" s="2">
         <v>45654</v>
@@ -6687,7 +6667,7 @@
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A275" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B275" s="2">
         <v>45655</v>
@@ -6705,7 +6685,7 @@
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A276" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B276" s="2">
         <v>45656</v>
@@ -6723,7 +6703,7 @@
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A277" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B277" s="2">
         <v>45657</v>
@@ -6741,7 +6721,7 @@
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A278" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B278" s="2">
         <v>45658</v>
@@ -6759,7 +6739,7 @@
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A279" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B279" s="2">
         <v>45659</v>
@@ -6777,7 +6757,7 @@
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A280" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B280" s="2">
         <v>45660</v>
@@ -6795,7 +6775,7 @@
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A281" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B281" s="2">
         <v>45661</v>
@@ -6813,7 +6793,7 @@
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A282" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B282" s="2">
         <v>45662</v>
@@ -6831,7 +6811,7 @@
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A283" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B283" s="2">
         <v>45663</v>
@@ -6849,7 +6829,7 @@
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A284" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B284" s="2">
         <v>45664</v>
@@ -6867,7 +6847,7 @@
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A285" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B285" s="2">
         <v>45665</v>
@@ -6885,7 +6865,7 @@
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A286" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B286" s="2">
         <v>45666</v>
@@ -6903,7 +6883,7 @@
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A287" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B287" s="2">
         <v>45667</v>
@@ -6921,7 +6901,7 @@
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A288" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B288" s="2">
         <v>45668</v>
@@ -6939,7 +6919,7 @@
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A289" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B289" s="2">
         <v>45669</v>
@@ -6957,7 +6937,7 @@
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A290" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B290" s="2">
         <v>45670</v>
@@ -6975,7 +6955,7 @@
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A291" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B291" s="2">
         <v>45671</v>
@@ -6993,7 +6973,7 @@
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A292" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B292" s="2">
         <v>45672</v>
@@ -7011,7 +6991,7 @@
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A293" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B293" s="2">
         <v>45673</v>
@@ -7023,7 +7003,7 @@
         <v>7126</v>
       </c>
       <c r="E293" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F293" s="6">
         <v>15224</v>
@@ -7031,7 +7011,7 @@
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A294" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B294" s="2">
         <v>45674</v>
@@ -7051,7 +7031,7 @@
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A295" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B295" s="2">
         <v>45675</v>
@@ -7071,7 +7051,7 @@
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A296" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B296" s="2">
         <v>45676</v>
@@ -7091,7 +7071,7 @@
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A297" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B297" s="2">
         <v>45677</v>
@@ -7111,7 +7091,7 @@
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A298" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B298" s="2">
         <v>45678</v>
@@ -7131,7 +7111,7 @@
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A299" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B299" s="2">
         <v>45679</v>
@@ -7151,7 +7131,7 @@
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A300" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B300" s="2">
         <v>45680</v>
@@ -7163,7 +7143,7 @@
         <v>7639</v>
       </c>
       <c r="E300" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F300" s="6">
         <v>21698</v>
@@ -7171,7 +7151,7 @@
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A301" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B301" s="2">
         <v>45681</v>
@@ -7191,7 +7171,7 @@
     </row>
     <row r="302" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A302" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B302" s="2">
         <v>45682</v>
@@ -7201,7 +7181,7 @@
         <v>7047</v>
       </c>
       <c r="E302" s="19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F302" s="6">
         <v>13303</v>
@@ -7209,7 +7189,7 @@
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A303" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B303" s="2">
         <v>45683</v>
@@ -7229,7 +7209,7 @@
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A304" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B304" s="2">
         <v>45684</v>
@@ -7249,7 +7229,7 @@
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A305" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B305" s="2">
         <v>45685</v>
@@ -7269,7 +7249,7 @@
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A306" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B306" s="2">
         <v>45686</v>
@@ -7287,7 +7267,7 @@
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A307" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B307" s="2">
         <v>45687</v>
@@ -7305,7 +7285,7 @@
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A308" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B308" s="2">
         <v>45688</v>
@@ -7323,7 +7303,7 @@
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A309" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B309" s="2">
         <v>45689</v>
@@ -7333,7 +7313,7 @@
       </c>
       <c r="D309" s="29"/>
       <c r="E309" s="19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F309" s="6">
         <v>16984</v>
@@ -7341,7 +7321,7 @@
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A310" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B310" s="2">
         <v>45690</v>
@@ -7359,7 +7339,7 @@
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A311" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B311" s="2">
         <v>45691</v>
@@ -7377,7 +7357,7 @@
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A312" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B312" s="2">
         <v>45692</v>
@@ -7395,7 +7375,7 @@
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A313" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B313" s="2">
         <v>45693</v>
@@ -7413,13 +7393,13 @@
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A314" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B314" s="2">
         <v>45694</v>
       </c>
       <c r="C314" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D314" s="29"/>
       <c r="E314" s="10">
@@ -7431,13 +7411,13 @@
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A315" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B315" s="2">
         <v>45695</v>
       </c>
       <c r="C315" s="20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D315" s="29"/>
       <c r="E315" s="10">
@@ -7449,7 +7429,7 @@
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A316" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B316" s="2">
         <v>45696</v>
@@ -7467,7 +7447,7 @@
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A317" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B317" s="2">
         <v>45697</v>
@@ -7485,7 +7465,7 @@
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A318" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B318" s="2">
         <v>45698</v>
@@ -7503,7 +7483,7 @@
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A319" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B319" s="2">
         <v>45699</v>
@@ -7521,7 +7501,7 @@
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A320" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B320" s="2">
         <v>45700</v>
@@ -7539,7 +7519,7 @@
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A321" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B321" s="2">
         <v>45701</v>
@@ -7557,7 +7537,7 @@
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A322" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B322" s="2">
         <v>45702</v>
@@ -7575,7 +7555,7 @@
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A323" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B323" s="2">
         <v>45703</v>
@@ -7593,7 +7573,7 @@
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A324" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B324" s="2">
         <v>45704</v>
@@ -7611,7 +7591,7 @@
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A325" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B325" s="2">
         <v>45705</v>
@@ -7627,7 +7607,7 @@
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A326" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B326" s="2">
         <v>45706</v>
@@ -7645,7 +7625,7 @@
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A327" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B327" s="2">
         <v>45707</v>
@@ -7663,7 +7643,7 @@
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A328" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B328" s="2">
         <v>45708</v>
@@ -7681,7 +7661,7 @@
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A329" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B329" s="2">
         <v>45709</v>
@@ -7699,7 +7679,7 @@
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A330" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B330" s="2">
         <v>45710</v>
@@ -7717,7 +7697,7 @@
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A331" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B331" s="2">
         <v>45711</v>
@@ -7735,7 +7715,7 @@
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A332" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B332" s="2">
         <v>45712</v>
@@ -7753,7 +7733,7 @@
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A333" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B333" s="2">
         <v>45713</v>
@@ -7771,7 +7751,7 @@
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A334" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B334" s="2">
         <v>45714</v>
@@ -7789,7 +7769,7 @@
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A335" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B335" s="2">
         <v>45715</v>
@@ -7807,7 +7787,7 @@
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A336" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B336" s="2">
         <v>45716</v>
@@ -7825,7 +7805,7 @@
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A337" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B337" s="2">
         <v>45717</v>
@@ -7845,7 +7825,7 @@
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A338" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B338" s="2">
         <v>45718</v>
@@ -7865,7 +7845,7 @@
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A339" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B339" s="2">
         <v>45719</v>
@@ -7885,7 +7865,7 @@
     </row>
     <row r="340" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A340" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B340" s="2">
         <v>45720</v>
@@ -7905,7 +7885,7 @@
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A341" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B341" s="2">
         <v>45721</v>
@@ -7925,7 +7905,7 @@
     </row>
     <row r="342" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A342" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B342" s="2">
         <v>45722</v>
@@ -7945,7 +7925,7 @@
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A343" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B343" s="2">
         <v>45723</v>
@@ -7965,7 +7945,7 @@
     </row>
     <row r="344" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A344" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B344" s="2">
         <v>45724</v>
@@ -7985,7 +7965,7 @@
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A345" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B345" s="2">
         <v>45725</v>
@@ -8005,7 +7985,7 @@
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A346" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B346" s="2">
         <v>45726</v>
@@ -8025,7 +8005,7 @@
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A347" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B347" s="2">
         <v>45727</v>
@@ -8045,7 +8025,7 @@
     </row>
     <row r="348" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A348" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B348" s="2">
         <v>45728</v>
@@ -8065,7 +8045,7 @@
     </row>
     <row r="349" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A349" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B349" s="2">
         <v>45729</v>
@@ -8085,7 +8065,7 @@
     </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A350" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B350" s="2">
         <v>45730</v>
@@ -8105,7 +8085,7 @@
     </row>
     <row r="351" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A351" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B351" s="2">
         <v>45731</v>
@@ -8125,7 +8105,7 @@
     </row>
     <row r="352" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A352" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B352" s="2">
         <v>45732</v>
@@ -8145,7 +8125,7 @@
     </row>
     <row r="353" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A353" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B353" s="2">
         <v>45733</v>
@@ -8165,7 +8145,7 @@
     </row>
     <row r="354" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A354" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B354" s="2">
         <v>45734</v>
@@ -8183,7 +8163,7 @@
     </row>
     <row r="355" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A355" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B355" s="2">
         <v>45735</v>
@@ -8201,7 +8181,7 @@
     </row>
     <row r="356" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A356" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B356" s="2">
         <v>45736</v>
@@ -8221,7 +8201,7 @@
     </row>
     <row r="357" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A357" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B357" s="2">
         <v>45737</v>
@@ -8241,7 +8221,7 @@
     </row>
     <row r="358" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A358" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B358" s="2">
         <v>45738</v>
@@ -8261,7 +8241,7 @@
     </row>
     <row r="359" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A359" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B359" s="2">
         <v>45739</v>
@@ -8281,7 +8261,7 @@
     </row>
     <row r="360" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A360" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B360" s="2">
         <v>45740</v>
@@ -8301,7 +8281,7 @@
     </row>
     <row r="361" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A361" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B361" s="2">
         <v>45741</v>
@@ -8321,7 +8301,7 @@
     </row>
     <row r="362" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A362" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B362" s="2">
         <v>45742</v>
@@ -8339,7 +8319,7 @@
     </row>
     <row r="363" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A363" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B363" s="2">
         <v>45743</v>
@@ -8359,7 +8339,7 @@
     </row>
     <row r="364" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A364" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B364" s="2">
         <v>45744</v>
@@ -8379,7 +8359,7 @@
     </row>
     <row r="365" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A365" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B365" s="2">
         <v>45745</v>
@@ -8399,7 +8379,7 @@
     </row>
     <row r="366" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A366" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B366" s="2">
         <v>45746</v>
@@ -8419,7 +8399,7 @@
     </row>
     <row r="367" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A367" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B367" s="2">
         <v>45747</v>
